--- a/Excel/Common/CityBuilding.xlsx
+++ b/Excel/Common/CityBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
   <si>
     <t>##var</t>
   </si>
@@ -351,10 +351,13 @@
     <t>SlotID</t>
   </si>
   <si>
-    <t>PositionX</t>
-  </si>
-  <si>
-    <t>PositionZ</t>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
+    <t>posZ</t>
   </si>
   <si>
     <t>RotationY</t>
@@ -364,6 +367,9 @@
   </si>
   <si>
     <t>UnlockCondition</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>bool</t>
@@ -1609,7 +1615,7 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2120,21 +2126,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="3" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="3" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2156,8 +2162,11 @@
       <c r="G1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2165,18 +2174,21 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2195,7 +2207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2208,14 +2220,17 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2228,14 +2243,17 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2248,14 +2266,17 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2268,14 +2289,17 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2288,14 +2312,17 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2308,14 +2335,17 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2328,14 +2358,17 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:8">
       <c r="B14">
         <v>8</v>
       </c>
@@ -2348,14 +2381,17 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:8">
       <c r="B15">
         <v>9</v>
       </c>
@@ -2368,10 +2404,13 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Excel/Common/CityBuilding.xlsx
+++ b/Excel/Common/CityBuilding.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="5" r:id="rId1"/>
     <sheet name="Level" sheetId="6" r:id="rId2"/>
     <sheet name="Slot" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -144,7 +144,7 @@
     <t>unlockCondition</t>
   </si>
   <si>
-    <t>modelPath</t>
+    <t>BuildingModelPath</t>
   </si>
   <si>
     <t>(map#sep=,|),int,int</t>
@@ -165,7 +165,7 @@
     <t>解锁条件(ID,lv)</t>
   </si>
   <si>
-    <t>模型路径</t>
+    <t>建筑模型路径</t>
   </si>
   <si>
     <t>秒</t>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1615,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1626,7 +1626,7 @@
     <col min="4" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2128,8 +2128,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
